--- a/Entities.xlsx
+++ b/Entities.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisa\Desktop\ADB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9105"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="BusinessObjects" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Tabellenname</t>
   </si>
@@ -45,6 +46,162 @@
   </si>
   <si>
     <t>Überschneidung mit?</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Attribut</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Wertbereich</t>
+  </si>
+  <si>
+    <t>Antrag</t>
+  </si>
+  <si>
+    <t>Antragsteller</t>
+  </si>
+  <si>
+    <t>Schlüssel</t>
+  </si>
+  <si>
+    <t>Fremdschlüssel</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Aktenzeichen?</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Erklärungen</t>
+  </si>
+  <si>
+    <t>Anlagen</t>
+  </si>
+  <si>
+    <t>Belehrungen</t>
+  </si>
+  <si>
+    <t>Dateiuploads</t>
+  </si>
+  <si>
+    <t>Förderprogramm</t>
+  </si>
+  <si>
+    <t>Förderhöhe</t>
+  </si>
+  <si>
+    <t>Projekt</t>
+  </si>
+  <si>
+    <t>int (auto-inkr)</t>
+  </si>
+  <si>
+    <t>Bearbeitungsstand</t>
+  </si>
+  <si>
+    <t>Projektinhalt</t>
+  </si>
+  <si>
+    <t>Projektfinanzen</t>
+  </si>
+  <si>
+    <t>(Projektablauf)</t>
+  </si>
+  <si>
+    <t>Projektbeschreibung</t>
+  </si>
+  <si>
+    <t>String oder Projektbeschreibung</t>
+  </si>
+  <si>
+    <t>Fotodokumentation</t>
+  </si>
+  <si>
+    <t>GIS-Dokumentation</t>
+  </si>
+  <si>
+    <t>KFP</t>
+  </si>
+  <si>
+    <t>hier: Kommune, allgemeiner: Person</t>
+  </si>
+  <si>
+    <t>Zahlungsfluss</t>
+  </si>
+  <si>
+    <t>Zahlungsdatum</t>
+  </si>
+  <si>
+    <t>Buchungsdatum</t>
+  </si>
+  <si>
+    <t>Rechnungsdatum</t>
+  </si>
+  <si>
+    <t>etc.</t>
+  </si>
+  <si>
+    <t>in ERP inspirieren lassen</t>
+  </si>
+  <si>
+    <t>(Soll-Ist-Vergleich)</t>
+  </si>
+  <si>
+    <t>Kosten- und Finanzierungsplan, Aufstellung der geplanten Einnahme- und Ausgabepositionen</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Wird im Verwendungsnachweis relevant
+wird aus KFP und Projekt-Einnahmen und Ausgaben generiert</t>
+  </si>
+  <si>
+    <t>(Belegliste)</t>
+  </si>
+  <si>
+    <t>Auflistung aller Projekteinnahmen und -ausgaben
+wird erst bei Verwendungsnachweis nach ANBest-P relevant</t>
+  </si>
+  <si>
+    <t>Zahlungsart</t>
+  </si>
+  <si>
+    <t>Einnahme/
+Ausgabe</t>
+  </si>
+  <si>
+    <t>Projektausgabe / einnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alles, was zur Bewilligung und Prüfung der P-Umsetzung und des P-Erfolgs notwendig ist </t>
+  </si>
+  <si>
+    <t>Mengengerüst??</t>
+  </si>
+  <si>
+    <t>Zeitplan??</t>
   </si>
 </sst>
 </file>
@@ -101,9 +258,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -418,10 +587,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="64.85546875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="B19:B22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
